--- a/files/teaching-resources/monmouthcollege-busi-201/BUSI201-LEC04-Workbook.xlsx
+++ b/files/teaching-resources/monmouthcollege-busi-201/BUSI201-LEC04-Workbook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Dropbox\Teaching\Monmouth College\[BUSI 201] Business Data Analysis\BUSI201-Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2D6776-200F-451B-801B-1399D0AB08DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7B7213-7B6F-4A76-9DC4-21F23418E6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{C189D619-1109-48B6-8376-AB363274896F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C189D619-1109-48B6-8376-AB363274896F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="125">
   <si>
     <t>Pens</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>Passing Criteria: Average of 140 points between the two rounds</t>
+  </si>
+  <si>
+    <t>Extra</t>
   </si>
 </sst>
 </file>
@@ -693,7 +696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
@@ -743,10 +746,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFill="1" applyBorder="1">
@@ -779,20 +782,17 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1113,7 +1113,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1354,24 +1354,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="25"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="26"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="20"/>
     </row>
     <row r="5" spans="2:7" ht="14.4" customHeight="1"/>
@@ -2525,23 +2525,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16143B23-5448-4712-B6AB-DA6EE57B4F83}">
-  <dimension ref="B1:G19"/>
+  <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
-    <col min="2" max="7" width="12.77734375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="8" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="2:7">
+    <row r="1" spans="2:8">
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" spans="2:8">
       <c r="B2" s="14" t="s">
         <v>117</v>
       </c>
@@ -2560,336 +2560,227 @@
       <c r="G2" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="31" t="s">
+      <c r="H2" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="13">
         <v>159</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="13">
         <v>161</v>
       </c>
-      <c r="E3" s="26">
-        <f>AVERAGE(C3:D3)</f>
-        <v>160</v>
-      </c>
-      <c r="F3" s="24" t="str">
-        <f>IF(E3&gt;=140,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="G3" s="24" t="str">
-        <f>IF(F3="FAIL",140-E3,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="31" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="13">
         <v>168</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="13">
         <v>168</v>
       </c>
-      <c r="E4" s="26">
-        <f>AVERAGE(C4:D4)</f>
+      <c r="E4" s="26"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="13">
+        <v>113</v>
+      </c>
+      <c r="D5" s="13">
+        <v>112</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="13">
+        <v>95</v>
+      </c>
+      <c r="D6" s="13">
+        <v>105</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="13">
+        <v>103</v>
+      </c>
+      <c r="D7" s="13">
+        <v>117</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="13">
+        <v>135</v>
+      </c>
+      <c r="D8" s="13">
+        <v>149</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="13">
+        <v>139</v>
+      </c>
+      <c r="D9" s="13">
+        <v>139</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="13">
+        <v>165</v>
+      </c>
+      <c r="D10" s="13">
+        <v>198</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="13">
+        <v>182</v>
+      </c>
+      <c r="D11" s="13">
+        <v>218</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="13">
+        <v>98</v>
+      </c>
+      <c r="D12" s="13">
+        <v>115</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="13">
+        <v>127</v>
+      </c>
+      <c r="D13" s="13">
+        <v>142</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="13">
+        <v>166</v>
+      </c>
+      <c r="D14" s="13">
+        <v>181</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="13">
         <v>168</v>
       </c>
-      <c r="F4" s="24" t="str">
-        <f t="shared" ref="F4:F16" si="0">IF(E4&gt;=140,"PASS","FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="G4" s="24" t="str">
-        <f>IF(F4="FAIL",140-E4,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="32">
-        <v>113</v>
-      </c>
-      <c r="D5" s="32">
-        <v>112</v>
-      </c>
-      <c r="E5" s="26">
-        <f>AVERAGE(C5:D5)</f>
-        <v>112.5</v>
-      </c>
-      <c r="F5" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="G5" s="24">
-        <f>IF(F5="FAIL",140-E5,"")</f>
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="32">
-        <v>95</v>
-      </c>
-      <c r="D6" s="32">
-        <v>105</v>
-      </c>
-      <c r="E6" s="26">
-        <f>AVERAGE(C6:D6)</f>
-        <v>100</v>
-      </c>
-      <c r="F6" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="G6" s="24">
-        <f>IF(F6="FAIL",140-E6,"")</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="32">
-        <v>103</v>
-      </c>
-      <c r="D7" s="32">
-        <v>117</v>
-      </c>
-      <c r="E7" s="26">
-        <f>AVERAGE(C7:D7)</f>
-        <v>110</v>
-      </c>
-      <c r="F7" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="G7" s="24">
-        <f>IF(F7="FAIL",140-E7,"")</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="32">
-        <v>135</v>
-      </c>
-      <c r="D8" s="32">
-        <v>149</v>
-      </c>
-      <c r="E8" s="26">
-        <f t="shared" ref="E8:E16" si="1">AVERAGE(C8:D8)</f>
-        <v>142</v>
-      </c>
-      <c r="F8" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="G8" s="24" t="str">
-        <f>IF(F8="FAIL",140-E8,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="32">
-        <v>139</v>
-      </c>
-      <c r="D9" s="32">
-        <v>139</v>
-      </c>
-      <c r="E9" s="26">
-        <f t="shared" si="1"/>
-        <v>139</v>
-      </c>
-      <c r="F9" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="G9" s="24">
-        <f>IF(F9="FAIL",140-E9,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="32">
-        <v>165</v>
-      </c>
-      <c r="D10" s="32">
-        <v>198</v>
-      </c>
-      <c r="E10" s="26">
-        <f t="shared" si="1"/>
-        <v>181.5</v>
-      </c>
-      <c r="F10" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="G10" s="24" t="str">
-        <f>IF(F10="FAIL",140-E10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="32">
-        <v>182</v>
-      </c>
-      <c r="D11" s="32">
-        <v>218</v>
-      </c>
-      <c r="E11" s="26">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="F11" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="G11" s="24" t="str">
-        <f>IF(F11="FAIL",140-E11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="32">
-        <v>98</v>
-      </c>
-      <c r="D12" s="32">
-        <v>115</v>
-      </c>
-      <c r="E12" s="26">
-        <f t="shared" si="1"/>
-        <v>106.5</v>
-      </c>
-      <c r="F12" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="G12" s="24">
-        <f>IF(F12="FAIL",140-E12,"")</f>
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="32">
-        <v>127</v>
-      </c>
-      <c r="D13" s="32">
-        <v>142</v>
-      </c>
-      <c r="E13" s="26">
-        <f t="shared" si="1"/>
-        <v>134.5</v>
-      </c>
-      <c r="F13" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="G13" s="24">
-        <f>IF(F13="FAIL",140-E13,"")</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="32">
-        <v>166</v>
-      </c>
-      <c r="D14" s="32">
-        <v>181</v>
-      </c>
-      <c r="E14" s="26">
-        <f t="shared" si="1"/>
-        <v>173.5</v>
-      </c>
-      <c r="F14" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="G14" s="24" t="str">
-        <f>IF(F14="FAIL",140-E14,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="32">
-        <v>168</v>
-      </c>
-      <c r="D15" s="32">
+      <c r="D15" s="13">
         <v>186</v>
       </c>
-      <c r="E15" s="26">
-        <f t="shared" si="1"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="13">
         <v>177</v>
       </c>
-      <c r="F15" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="G15" s="24" t="str">
-        <f>IF(F15="FAIL",140-E15,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="32">
-        <v>177</v>
-      </c>
-      <c r="D16" s="32">
+      <c r="D16" s="13">
         <v>175</v>
       </c>
-      <c r="E16" s="26">
-        <f t="shared" si="1"/>
-        <v>176</v>
-      </c>
-      <c r="F16" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="G16" s="24" t="str">
-        <f>IF(F16="FAIL",140-E16,"")</f>
-        <v/>
-      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="31" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="31" t="s">
         <v>122</v>
       </c>
     </row>
